--- a/evaluation/results/one_svm/split_4/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_4/test_50_50/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.287250497164322</v>
       </c>
       <c r="H2">
-        <v>0.5683520599250936</v>
+        <v>0.7789981624093478</v>
       </c>
       <c r="I2">
         <v>150</v>

--- a/evaluation/results/one_svm/split_4/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_4/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5683520599250936</v>
+        <v>0.6788389513108615</v>
       </c>
       <c r="C2">
-        <v>0.6607929515418502</v>
+        <v>0.6183395291201983</v>
       </c>
       <c r="D2">
-        <v>0.2808988764044944</v>
+        <v>0.9344569288389513</v>
       </c>
       <c r="E2">
-        <v>0.3942181340341656</v>
+        <v>0.744220730797912</v>
       </c>
       <c r="F2">
-        <v>0.317393144308083</v>
+        <v>0.8477743798844716</v>
       </c>
       <c r="G2">
-        <v>0.287250497164322</v>
+        <v>0.9164370982552801</v>
       </c>
       <c r="H2">
-        <v>0.7789981624093478</v>
+        <v>0.777002763399683</v>
       </c>
       <c r="I2">
-        <v>150</v>
+        <v>499</v>
       </c>
       <c r="J2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="K2">
-        <v>457</v>
+        <v>226</v>
       </c>
       <c r="L2">
-        <v>384</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5434007134363853</v>
+        <v>0.8659003831417624</v>
       </c>
       <c r="C2">
-        <v>0.8558052434456929</v>
+        <v>0.4232209737827715</v>
       </c>
       <c r="D2">
-        <v>0.6647272727272727</v>
+        <v>0.5685534591194968</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.6607929515418502</v>
+        <v>0.6183395291201983</v>
       </c>
       <c r="C3">
-        <v>0.2808988764044944</v>
+        <v>0.9344569288389513</v>
       </c>
       <c r="D3">
-        <v>0.3942181340341656</v>
+        <v>0.744220730797912</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5683520599250936</v>
+        <v>0.6788389513108615</v>
       </c>
       <c r="C4">
-        <v>0.5683520599250936</v>
+        <v>0.6788389513108615</v>
       </c>
       <c r="D4">
-        <v>0.5683520599250936</v>
+        <v>0.6788389513108615</v>
       </c>
       <c r="E4">
-        <v>0.5683520599250936</v>
+        <v>0.6788389513108615</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6020968324891178</v>
+        <v>0.7421199561309804</v>
       </c>
       <c r="C5">
-        <v>0.5683520599250936</v>
+        <v>0.6788389513108614</v>
       </c>
       <c r="D5">
-        <v>0.5294727033807192</v>
+        <v>0.6563870949587044</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.6020968324891177</v>
+        <v>0.7421199561309804</v>
       </c>
       <c r="C6">
-        <v>0.5683520599250936</v>
+        <v>0.6788389513108615</v>
       </c>
       <c r="D6">
-        <v>0.5294727033807192</v>
+        <v>0.6563870949587044</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>457</v>
+        <v>226</v>
       </c>
       <c r="C2">
-        <v>77</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>384</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
